--- a/Nhom_ĐA10.xlsx
+++ b/Nhom_ĐA10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataLocal/Teaching/Pattern/Do an + tieu luan/2022-2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\522h0083_TranMyVan\Sem2_3\Design Pattern\Final\jewelrystore-vantest\jewelrystore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EADE76-913C-1C4D-B08B-2769D6AAA11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E8F94CB-5D03-4DC7-85C1-A078F81E63E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22980" windowHeight="17480" xr2:uid="{26352C60-855D-E843-A083-A5990A866B49}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{26352C60-855D-E843-A083-A5990A866B49}"/>
   </bookViews>
   <sheets>
     <sheet name="Đánh giá" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="65">
-  <si>
-    <t>?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="79">
   <si>
     <t>Thành viên</t>
   </si>
@@ -188,9 +185,6 @@
     <t>Pattern 1:</t>
   </si>
   <si>
-    <t>NHẬP TÊN PATTERN Ở ĐÂY</t>
-  </si>
-  <si>
     <t>Pattern 2:</t>
   </si>
   <si>
@@ -234,6 +228,54 @@
   </si>
   <si>
     <t>Mức độ hoàn thành</t>
+  </si>
+  <si>
+    <t>Bạch Phương Bình</t>
+  </si>
+  <si>
+    <t>Dương Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Trần Mỹ Vân</t>
+  </si>
+  <si>
+    <t>522H0001</t>
+  </si>
+  <si>
+    <t>522H0015</t>
+  </si>
+  <si>
+    <t>522H0083</t>
+  </si>
+  <si>
+    <t>ĐA10</t>
+  </si>
+  <si>
+    <t>Factory Method Design Pattern</t>
+  </si>
+  <si>
+    <t>State Design Pattern</t>
+  </si>
+  <si>
+    <t>Command Design Pattern</t>
+  </si>
+  <si>
+    <t>Observer Design Pattern</t>
+  </si>
+  <si>
+    <t>Strategy Design Pattern</t>
+  </si>
+  <si>
+    <t>Adapter Design Pattern</t>
+  </si>
+  <si>
+    <t>Facade Design Pattern</t>
+  </si>
+  <si>
+    <t>Decorator Design Pattern</t>
+  </si>
+  <si>
+    <t>Iterator Design Pattern</t>
   </si>
 </sst>
 </file>
@@ -356,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -368,7 +410,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -388,11 +430,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -421,15 +462,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -456,10 +500,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +566,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -567,7 +611,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -673,7 +717,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -815,7 +859,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -825,11 +869,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E239685B-1024-EF43-9BAA-773B6567ABE5}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -844,15 +888,15 @@
     <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -860,44 +904,50 @@
       <c r="L1" s="2"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="37"/>
+    <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="C3" s="37"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="12">
+        <v>795440313</v>
+      </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -905,15 +955,21 @@
       <c r="L3" s="2"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="37"/>
+    <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="C4" s="37"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="12">
+        <v>337333736</v>
+      </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -921,15 +977,21 @@
       <c r="L4" s="2"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="38"/>
+    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="C5" s="38"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="11">
+        <v>932112585</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -937,7 +999,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="11"/>
@@ -945,7 +1007,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -953,23 +1015,23 @@
       <c r="L6" s="2"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -977,72 +1039,72 @@
       <c r="E8" s="31"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>1</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>2</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>3</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="I9" s="32" t="s">
         <v>12</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>13</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>25</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>27</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1052,29 +1114,29 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>48</v>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="28" t="str">
+      <c r="F12" s="26" t="str">
         <f>IF(SUM(F13:F15)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="G12" s="28" t="str">
+      <c r="G12" s="26" t="str">
         <f t="shared" ref="G12:I12" si="0">IF(SUM(G13:G15)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="H12" s="28" t="str">
+      <c r="H12" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="28" t="str">
+      <c r="I12" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1087,25 +1149,31 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="F13" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.4</v>
+      </c>
       <c r="I13" s="10"/>
       <c r="J13" s="2" t="str">
         <f t="shared" ref="J13:J15" si="1">IF(MAX(F13:I13)&gt;B13,"Nhập sai, tối đa " &amp; B13,"")</f>
@@ -1120,25 +1188,31 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="F14" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1153,25 +1227,31 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="F15" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.2</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1186,29 +1266,29 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>50</v>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="28" t="str">
+      <c r="F16" s="26" t="str">
         <f>IF(SUM(F17:F19)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="G16" s="28" t="str">
+      <c r="G16" s="26" t="str">
         <f t="shared" ref="G16" si="2">IF(SUM(G17:G19)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="H16" s="28" t="str">
+      <c r="H16" s="26" t="str">
         <f t="shared" ref="H16" si="3">IF(SUM(H17:H19)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="I16" s="28" t="str">
+      <c r="I16" s="26" t="str">
         <f t="shared" ref="I16" si="4">IF(SUM(I17:I19)=1,"Đ","")</f>
         <v/>
       </c>
@@ -1219,25 +1299,31 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="F17" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.4</v>
+      </c>
       <c r="I17" s="10"/>
       <c r="J17" s="2" t="str">
         <f>IF(MAX(F17:I17)&gt;B17,"Nhập sai, tối đa " &amp; B17,"")</f>
@@ -1246,21 +1332,21 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1273,25 +1359,31 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="F19" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I19" s="10"/>
       <c r="J19" s="2" t="str">
         <f t="shared" si="5"/>
@@ -1300,54 +1392,60 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>51</v>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="28" t="str">
+      <c r="F20" s="26" t="str">
         <f>IF(SUM(F21:F23)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="G20" s="28" t="str">
+      <c r="G20" s="26" t="str">
         <f t="shared" ref="G20" si="6">IF(SUM(G21:G23)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="H20" s="28" t="str">
+      <c r="H20" s="26" t="str">
         <f t="shared" ref="H20" si="7">IF(SUM(H21:H23)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="I20" s="28" t="str">
+      <c r="I20" s="26" t="str">
         <f t="shared" ref="I20" si="8">IF(SUM(I21:I23)=1,"Đ","")</f>
         <v/>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="C21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="F21" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.4</v>
+      </c>
       <c r="I21" s="10"/>
       <c r="J21" s="2" t="str">
         <f>IF(MAX(F21:I21)&gt;B21,"Nhập sai, tối đa " &amp; B21,"")</f>
@@ -1356,21 +1454,21 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -1380,106 +1478,118 @@
         <f t="shared" ref="J22:J23" si="9">IF(MAX(F22:I22)&gt;B22,"Nhập sai, tối đa " &amp; B22,"")</f>
         <v/>
       </c>
-      <c r="K22" s="25" t="s">
-        <v>60</v>
+      <c r="K22" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="F23" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I23" s="10"/>
       <c r="J23" s="2" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>52</v>
+      <c r="K23" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="28" t="str">
+      <c r="F24" s="26" t="str">
         <f>IF(SUM(F25:F27)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="G24" s="28" t="str">
+      <c r="G24" s="26" t="str">
         <f t="shared" ref="G24" si="10">IF(SUM(G25:G27)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="H24" s="28" t="str">
+      <c r="H24" s="26" t="str">
         <f t="shared" ref="H24" si="11">IF(SUM(H25:H27)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="I24" s="28" t="str">
+      <c r="I24" s="26" t="str">
         <f t="shared" ref="I24" si="12">IF(SUM(I25:I27)=1,"Đ","")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="F25" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0.4</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="2" t="str">
         <f>IF(MAX(F25:I25)&gt;B25,"Nhập sai, tối đa " &amp; B25,"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1490,98 +1600,110 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="F27" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="2" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>53</v>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
-      <c r="F28" s="28" t="str">
+      <c r="F28" s="26" t="str">
         <f>IF(SUM(F29:F31)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="G28" s="28" t="str">
+      <c r="G28" s="26" t="str">
         <f t="shared" ref="G28" si="14">IF(SUM(G29:G31)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="H28" s="28" t="str">
+      <c r="H28" s="26" t="str">
         <f t="shared" ref="H28" si="15">IF(SUM(H29:H31)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="I28" s="28" t="str">
+      <c r="I28" s="26" t="str">
         <f t="shared" ref="I28" si="16">IF(SUM(I29:I31)=1,"Đ","")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="C29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="F29" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.4</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="2" t="str">
         <f>IF(MAX(F29:I29)&gt;B29,"Nhập sai, tối đa " &amp; B29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -1592,98 +1714,110 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+    <row r="31" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="F31" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I31" s="10"/>
       <c r="J31" s="2" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>54</v>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
-      <c r="F32" s="28" t="str">
+      <c r="F32" s="26" t="str">
         <f>IF(SUM(F33:F35)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="G32" s="28" t="str">
+      <c r="G32" s="26" t="str">
         <f t="shared" ref="G32" si="18">IF(SUM(G33:G35)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="H32" s="28" t="str">
+      <c r="H32" s="26" t="str">
         <f t="shared" ref="H32" si="19">IF(SUM(H33:H35)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="I32" s="28" t="str">
+      <c r="I32" s="26" t="str">
         <f t="shared" ref="I32" si="20">IF(SUM(I33:I35)=1,"Đ","")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+    <row r="33" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A33" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="C33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="F33" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0.4</v>
+      </c>
       <c r="I33" s="10"/>
       <c r="J33" s="2" t="str">
         <f>IF(MAX(F33:I33)&gt;B33,"Nhập sai, tối đa " &amp; B33,"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+    <row r="34" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A34" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C34" s="21" t="s">
+      <c r="D34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="E34" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -1694,98 +1828,110 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+    <row r="35" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A35" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="D35" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="E35" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="F35" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I35" s="10"/>
       <c r="J35" s="2" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>55</v>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
-      <c r="F36" s="28" t="str">
+      <c r="F36" s="26" t="str">
         <f>IF(SUM(F37:F39)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="G36" s="28" t="str">
+      <c r="G36" s="26" t="str">
         <f t="shared" ref="G36" si="22">IF(SUM(G37:G39)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="H36" s="28" t="str">
+      <c r="H36" s="26" t="str">
         <f t="shared" ref="H36" si="23">IF(SUM(H37:H39)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="I36" s="28" t="str">
+      <c r="I36" s="26" t="str">
         <f t="shared" ref="I36" si="24">IF(SUM(I37:I39)=1,"Đ","")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+    <row r="37" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A37" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="C37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="F37" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.4</v>
+      </c>
       <c r="I37" s="10"/>
       <c r="J37" s="2" t="str">
         <f>IF(MAX(F37:I37)&gt;B37,"Nhập sai, tối đa " &amp; B37,"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A38" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C38" s="21" t="s">
+      <c r="D38" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -1796,98 +1942,110 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+    <row r="39" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A39" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="E39" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="F39" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I39" s="10"/>
       <c r="J39" s="2" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>56</v>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
-      <c r="F40" s="28" t="str">
+      <c r="F40" s="26" t="str">
         <f>IF(SUM(F41:F43)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="G40" s="28" t="str">
+      <c r="G40" s="26" t="str">
         <f t="shared" ref="G40" si="26">IF(SUM(G41:G43)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="H40" s="28" t="str">
+      <c r="H40" s="26" t="str">
         <f t="shared" ref="H40" si="27">IF(SUM(H41:H43)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="I40" s="28" t="str">
+      <c r="I40" s="26" t="str">
         <f t="shared" ref="I40" si="28">IF(SUM(I41:I43)=1,"Đ","")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A41" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="C41" s="21" t="s">
+      <c r="D41" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="E41" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="F41" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0.4</v>
+      </c>
       <c r="I41" s="10"/>
       <c r="J41" s="2" t="str">
         <f>IF(MAX(F41:I41)&gt;B41,"Nhập sai, tối đa " &amp; B41,"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C42" s="21" t="s">
+      <c r="D42" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="E42" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -1898,98 +2056,110 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
+    <row r="43" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A43" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C43" s="21" t="s">
+      <c r="D43" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="E43" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="F43" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I43" s="10"/>
       <c r="J43" s="2" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
-        <v>57</v>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
-      <c r="F44" s="28" t="str">
+      <c r="F44" s="26" t="str">
         <f>IF(SUM(F45:F47)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="G44" s="28" t="str">
+      <c r="G44" s="26" t="str">
         <f t="shared" ref="G44" si="30">IF(SUM(G45:G47)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="H44" s="28" t="str">
+      <c r="H44" s="26" t="str">
         <f t="shared" ref="H44" si="31">IF(SUM(H45:H47)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="I44" s="28" t="str">
+      <c r="I44" s="26" t="str">
         <f t="shared" ref="I44" si="32">IF(SUM(I45:I47)=1,"Đ","")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+    <row r="45" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A45" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="C45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="E45" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="F45" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I45" s="10"/>
       <c r="J45" s="2" t="str">
         <f>IF(MAX(F45:I45)&gt;B45,"Nhập sai, tối đa " &amp; B45,"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A46" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="E46" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -2000,98 +2170,110 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+    <row r="47" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A47" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="E47" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="F47" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0.2</v>
+      </c>
       <c r="I47" s="10"/>
       <c r="J47" s="2" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
-        <v>58</v>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
-      <c r="F48" s="28" t="str">
+      <c r="F48" s="26" t="str">
         <f>IF(SUM(F49:F51)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="G48" s="28" t="str">
+      <c r="G48" s="26" t="str">
         <f t="shared" ref="G48" si="34">IF(SUM(G49:G51)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="H48" s="28" t="str">
+      <c r="H48" s="26" t="str">
         <f t="shared" ref="H48" si="35">IF(SUM(H49:H51)=1,"Đ","")</f>
         <v/>
       </c>
-      <c r="I48" s="28" t="str">
+      <c r="I48" s="26" t="str">
         <f t="shared" ref="I48" si="36">IF(SUM(I49:I51)=1,"Đ","")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+    <row r="49" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A49" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="E49" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="F49" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0.4</v>
+      </c>
       <c r="I49" s="10"/>
       <c r="J49" s="2" t="str">
         <f>IF(MAX(F49:I49)&gt;B49,"Nhập sai, tối đa " &amp; B49,"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
+    <row r="50" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C50" s="21" t="s">
+      <c r="D50" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="E50" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -2102,94 +2284,106 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
+    <row r="51" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A51" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C51" s="21" t="s">
+      <c r="D51" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="E51" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="F51" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I51" s="10"/>
       <c r="J51" s="2" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>40</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>41</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-    </row>
-    <row r="53" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="18" t="s">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="21" t="s">
+      <c r="E53" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+      <c r="F53" s="10">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1</v>
+      </c>
+      <c r="H53" s="10">
+        <v>1</v>
+      </c>
       <c r="I53" s="10"/>
       <c r="J53" s="2" t="str">
         <f>IF(MAX(F53:I53)&gt;1, "Nhập sai, tối đa 1","")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
-        <v>45</v>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
       <c r="E54" s="34"/>
-      <c r="F54" s="27">
+      <c r="F54" s="1">
         <f>IF(LEN(F48&amp;F44&amp;F40&amp;F36&amp;F32&amp;F28&amp;F24&amp;F20&amp;F16&amp;F12)&gt;=8,1,0)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="27">
+      <c r="G54" s="1">
         <f t="shared" ref="G54:I54" si="38">IF(LEN(G48&amp;G44&amp;G40&amp;G36&amp;G32&amp;G28&amp;G24&amp;G20&amp;G16&amp;G12)&gt;=8,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="27">
+      <c r="H54" s="1">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I54" s="1">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -2198,27 +2392,27 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
+    <row r="55" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
       <c r="E55" s="34"/>
       <c r="F55" s="3">
         <f>IF(SUM(F13:F54)&gt;10,10,SUM(F13:F54))</f>
-        <v>0</v>
+        <v>8.1000000000000014</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55:I55" si="39">IF(SUM(G13:G54)&gt;10,10,SUM(G13:G54))</f>
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="39"/>
@@ -2266,7 +2460,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" customWidth="1"/>
@@ -2274,61 +2468,61 @@
     <col min="4" max="4" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Nhom_ĐA10.xlsx
+++ b/Nhom_ĐA10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\522h0083_TranMyVan\Sem2_3\Design Pattern\Final\jewelrystore-vantest\jewelrystore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E8F94CB-5D03-4DC7-85C1-A078F81E63E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB2989-8605-4C51-A9B0-21A2164C08B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{26352C60-855D-E843-A083-A5990A866B49}"/>
   </bookViews>
@@ -470,17 +470,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -489,16 +491,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,10 +564,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -869,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E239685B-1024-EF43-9BAA-773B6567ABE5}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -908,10 +904,10 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
@@ -934,10 +930,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="12" t="s">
         <v>66</v>
       </c>
@@ -956,10 +952,10 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="12" t="s">
         <v>67</v>
       </c>
@@ -978,10 +974,10 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="11" t="s">
         <v>68</v>
       </c>
@@ -1000,8 +996,8 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1030,13 +1026,13 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -1055,16 +1051,16 @@
       <c r="E9" s="23">
         <v>3</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="37" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="7"/>
@@ -1086,21 +1082,21 @@
       <c r="E10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -1278,7 +1274,7 @@
       <c r="E16" s="35"/>
       <c r="F16" s="26" t="str">
         <f>IF(SUM(F17:F19)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="G16" s="26" t="str">
         <f t="shared" ref="G16" si="2">IF(SUM(G17:G19)=1,"Đ","")</f>
@@ -1286,7 +1282,7 @@
       </c>
       <c r="H16" s="26" t="str">
         <f t="shared" ref="H16" si="3">IF(SUM(H17:H19)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="I16" s="26" t="str">
         <f t="shared" ref="I16" si="4">IF(SUM(I17:I19)=1,"Đ","")</f>
@@ -1348,9 +1344,15 @@
       <c r="E18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="F18" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="2" t="str">
         <f t="shared" ref="J18:J19" si="5">IF(MAX(F18:I18)&gt;B18,"Nhập sai, tối đa " &amp; B18,"")</f>
@@ -1404,15 +1406,15 @@
       <c r="E20" s="35"/>
       <c r="F20" s="26" t="str">
         <f>IF(SUM(F21:F23)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="G20" s="26" t="str">
         <f t="shared" ref="G20" si="6">IF(SUM(G21:G23)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="H20" s="26" t="str">
         <f t="shared" ref="H20" si="7">IF(SUM(H21:H23)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="I20" s="26" t="str">
         <f t="shared" ref="I20" si="8">IF(SUM(I21:I23)=1,"Đ","")</f>
@@ -1470,9 +1472,15 @@
       <c r="E22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="F22" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I22" s="10"/>
       <c r="J22" s="2" t="str">
         <f t="shared" ref="J22:J23" si="9">IF(MAX(F22:I22)&gt;B22,"Nhập sai, tối đa " &amp; B22,"")</f>
@@ -1529,15 +1537,15 @@
       <c r="E24" s="35"/>
       <c r="F24" s="26" t="str">
         <f>IF(SUM(F25:F27)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="G24" s="26" t="str">
         <f t="shared" ref="G24" si="10">IF(SUM(G25:G27)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="H24" s="26" t="str">
         <f t="shared" ref="H24" si="11">IF(SUM(H25:H27)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="I24" s="26" t="str">
         <f t="shared" ref="I24" si="12">IF(SUM(I25:I27)=1,"Đ","")</f>
@@ -1591,9 +1599,15 @@
       <c r="E26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="F26" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="2" t="str">
         <f t="shared" ref="J26:J27" si="13">IF(MAX(F26:I26)&gt;B26,"Nhập sai, tối đa " &amp; B26,"")</f>
@@ -1643,15 +1657,15 @@
       <c r="E28" s="35"/>
       <c r="F28" s="26" t="str">
         <f>IF(SUM(F29:F31)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="G28" s="26" t="str">
         <f t="shared" ref="G28" si="14">IF(SUM(G29:G31)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="H28" s="26" t="str">
         <f t="shared" ref="H28" si="15">IF(SUM(H29:H31)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="I28" s="26" t="str">
         <f t="shared" ref="I28" si="16">IF(SUM(I29:I31)=1,"Đ","")</f>
@@ -1705,9 +1719,15 @@
       <c r="E30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="F30" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I30" s="10"/>
       <c r="J30" s="2" t="str">
         <f t="shared" ref="J30:J31" si="17">IF(MAX(F30:I30)&gt;B30,"Nhập sai, tối đa " &amp; B30,"")</f>
@@ -1757,15 +1777,15 @@
       <c r="E32" s="35"/>
       <c r="F32" s="26" t="str">
         <f>IF(SUM(F33:F35)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="G32" s="26" t="str">
         <f t="shared" ref="G32" si="18">IF(SUM(G33:G35)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="H32" s="26" t="str">
         <f t="shared" ref="H32" si="19">IF(SUM(H33:H35)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="I32" s="26" t="str">
         <f t="shared" ref="I32" si="20">IF(SUM(I33:I35)=1,"Đ","")</f>
@@ -1819,9 +1839,15 @@
       <c r="E34" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="F34" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I34" s="10"/>
       <c r="J34" s="2" t="str">
         <f t="shared" ref="J34:J35" si="21">IF(MAX(F34:I34)&gt;B34,"Nhập sai, tối đa " &amp; B34,"")</f>
@@ -1871,15 +1897,15 @@
       <c r="E36" s="35"/>
       <c r="F36" s="26" t="str">
         <f>IF(SUM(F37:F39)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="G36" s="26" t="str">
         <f t="shared" ref="G36" si="22">IF(SUM(G37:G39)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="H36" s="26" t="str">
         <f t="shared" ref="H36" si="23">IF(SUM(H37:H39)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="I36" s="26" t="str">
         <f t="shared" ref="I36" si="24">IF(SUM(I37:I39)=1,"Đ","")</f>
@@ -1933,9 +1959,15 @@
       <c r="E38" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="F38" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I38" s="10"/>
       <c r="J38" s="2" t="str">
         <f t="shared" ref="J38:J39" si="25">IF(MAX(F38:I38)&gt;B38,"Nhập sai, tối đa " &amp; B38,"")</f>
@@ -1985,15 +2017,15 @@
       <c r="E40" s="35"/>
       <c r="F40" s="26" t="str">
         <f>IF(SUM(F41:F43)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="G40" s="26" t="str">
         <f t="shared" ref="G40" si="26">IF(SUM(G41:G43)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="H40" s="26" t="str">
         <f t="shared" ref="H40" si="27">IF(SUM(H41:H43)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="I40" s="26" t="str">
         <f t="shared" ref="I40" si="28">IF(SUM(I41:I43)=1,"Đ","")</f>
@@ -2047,9 +2079,15 @@
       <c r="E42" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="F42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I42" s="10"/>
       <c r="J42" s="2" t="str">
         <f t="shared" ref="J42:J43" si="29">IF(MAX(F42:I42)&gt;B42,"Nhập sai, tối đa " &amp; B42,"")</f>
@@ -2103,7 +2141,7 @@
       </c>
       <c r="G44" s="26" t="str">
         <f t="shared" ref="G44" si="30">IF(SUM(G45:G47)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="H44" s="26" t="str">
         <f t="shared" ref="H44" si="31">IF(SUM(H45:H47)=1,"Đ","")</f>
@@ -2161,9 +2199,15 @@
       <c r="E46" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="F46" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I46" s="10"/>
       <c r="J46" s="2" t="str">
         <f t="shared" ref="J46:J47" si="33">IF(MAX(F46:I46)&gt;B46,"Nhập sai, tối đa " &amp; B46,"")</f>
@@ -2217,11 +2261,11 @@
       </c>
       <c r="G48" s="26" t="str">
         <f t="shared" ref="G48" si="34">IF(SUM(G49:G51)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="H48" s="26" t="str">
         <f t="shared" ref="H48" si="35">IF(SUM(H49:H51)=1,"Đ","")</f>
-        <v/>
+        <v>Đ</v>
       </c>
       <c r="I48" s="26" t="str">
         <f t="shared" ref="I48" si="36">IF(SUM(I49:I51)=1,"Đ","")</f>
@@ -2275,9 +2319,15 @@
       <c r="E50" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="F50" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0.3</v>
+      </c>
       <c r="I50" s="10"/>
       <c r="J50" s="2" t="str">
         <f t="shared" ref="J50:J51" si="37">IF(MAX(F50:I50)&gt;B50,"Nhập sai, tối đa " &amp; B50,"")</f>
@@ -2301,7 +2351,7 @@
         <v>38</v>
       </c>
       <c r="F51" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G51" s="10">
         <v>0.3</v>
@@ -2319,12 +2369,12 @@
       <c r="A52" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2377,11 +2427,11 @@
       </c>
       <c r="G54" s="1">
         <f t="shared" ref="G54:I54" si="38">IF(LEN(G48&amp;G44&amp;G40&amp;G36&amp;G32&amp;G28&amp;G24&amp;G20&amp;G16&amp;G12)&gt;=8,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="38"/>
@@ -2404,15 +2454,15 @@
       <c r="E55" s="34"/>
       <c r="F55" s="3">
         <f>IF(SUM(F13:F54)&gt;10,10,SUM(F13:F54))</f>
-        <v>8.1000000000000014</v>
+        <v>10</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55:I55" si="39">IF(SUM(G13:G54)&gt;10,10,SUM(G13:G54))</f>
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="39"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="39"/>
@@ -2422,11 +2472,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pvX13VZEq8rur8BbU0r+nQ3kBoodlKFrp70mB7wjM3wnORCx0YaVr6G1/ubh2hJEiPjn4rV09xUURe7VlIW8rw==" saltValue="m/mPQr8WdjqsuPMoliaOfw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="C55:E55"/>
@@ -2440,12 +2491,11 @@
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
